--- a/biology/Botanique/Glaïeul_des_moissons/Glaïeul_des_moissons.xlsx
+++ b/biology/Botanique/Glaïeul_des_moissons/Glaïeul_des_moissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul_des_moissons</t>
+          <t>Glaïeul_des_moissons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladiolus italicus
 Le glaïeul des moissons (Gladiolus italicus Mill., syn. Gladiolus segetum Ker Gawl.) encore connu sous le nom de glaïeul d'Italie est une plante vivace de la famille des Iridaceae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul_des_moissons</t>
+          <t>Glaïeul_des_moissons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Altitude : Maximum à 1200 mètres
 Distribution : Sub-Méditerranéenne
@@ -526,7 +540,7 @@
 Style filiforme
 Stigmates élargis en spatule
 Fruit : capsule loculicide
-Graines : graines lisses (différence avec les autres espèces indigènes, qui ont des graines ailées)[1]
+Graines : graines lisses (différence avec les autres espèces indigènes, qui ont des graines ailées)
 			Plante
 			Inflorescence
 			Détail de la fleur
